--- a/URS/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F7A9C-1DA4-471F-A455-89071BFEC7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -34,84 +33,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>欄位名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中文名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>形態</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>小數</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>備註說明</t>
-    </r>
-  </si>
-  <si>
     <t>VARCHAR2</t>
   </si>
   <si>
@@ -261,11 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:不送 1:依利率調整通知方式
-2:依設定優先序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0:無 , 優先序1/2/3 ; 優先序同為1時則同時寄送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -275,14 +191,6 @@
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Letter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -350,12 +258,60 @@
   <si>
     <t>FormNo =</t>
   </si>
+  <si>
+    <t>WatermarkFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮水印記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:不需浮水印 1:需浮水印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:不送 
+1:依利率調整通知方式
+2:依設定優先序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,34 +382,14 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="標楷體"/>
@@ -547,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,59 +541,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,23 +687,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -800,23 +722,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1011,418 +916,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="19" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="A8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="35">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19">
+        <v>40</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="113.4">
+      <c r="A11" s="35">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48.6">
+      <c r="A12" s="35">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>8</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="19">
+        <v>40</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="27" t="s">
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
+        <v>11</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
-      <c r="A8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="C19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="23" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="19">
         <v>6</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="29">
-        <v>10</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29">
-        <v>2</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="29">
-        <v>40</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="113.4">
-      <c r="A11" s="29">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="29">
-        <v>2</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="32.4">
-      <c r="A12" s="29">
+      <c r="E23" s="19">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="29">
-        <v>5</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="29">
-        <v>6</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="29">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="29">
-        <v>7</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="29">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="29">
-        <v>40</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="29">
-        <v>9</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="29">
-        <v>10</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="29">
-        <v>6</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="29">
-        <v>14</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="29">
-        <v>6</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="11"/>
       <c r="G24" s="7"/>
@@ -1430,7 +1349,6 @@
     <row r="25" spans="1:7">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
       <c r="E25" s="5"/>
       <c r="F25" s="11"/>
       <c r="G25" s="7"/>
@@ -1441,7 +1359,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="5"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="4"/>
@@ -1460,30 +1378,38 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
       <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1493,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1522,48 +1448,48 @@
     </row>
     <row r="2" spans="1:3" ht="37.35" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
